--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1959630.043225127</v>
+        <v>1957217.130719322</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9755771.095056256</v>
+        <v>9755771.095056254</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>13.91332762480609</v>
+        <v>332.2110827772195</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958331</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F13" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957277</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>156.1046309044727</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>218.3373217201519</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211451</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C17" t="n">
-        <v>171.0596063062457</v>
+        <v>297.0487454286721</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>286.4588952783475</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7062237299263</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F17" t="n">
-        <v>338.651899399376</v>
+        <v>268.9014443097203</v>
       </c>
       <c r="G17" t="n">
-        <v>342.697579311118</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>226.383618044985</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96361544584038</v>
+        <v>40.96361544584046</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6938237972847</v>
+        <v>135.6938237972848</v>
       </c>
       <c r="U17" t="n">
-        <v>182.7710256165665</v>
+        <v>182.7710256165666</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5281121277994</v>
+        <v>259.5281121277995</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0168223750775</v>
+        <v>281.0168223750776</v>
       </c>
       <c r="X17" t="n">
         <v>301.5069543361336</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0137923137181</v>
+        <v>318.0137923137182</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.6078338396018</v>
+        <v>111.6078338396019</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629236</v>
+        <v>99.02267475629243</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587688</v>
+        <v>80.39132667587695</v>
       </c>
       <c r="E19" t="n">
-        <v>78.2098163042337</v>
+        <v>78.20981630423377</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059577</v>
+        <v>77.19690168059584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669275</v>
+        <v>97.80166191669282</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198531</v>
+        <v>76.53086857198538</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750264</v>
+        <v>28.12827406750271</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771187</v>
+        <v>20.70800632771194</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5448789891064</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3248029338337</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U19" t="n">
         <v>217.9876918632774</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9134969814925</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2988519942555</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X19" t="n">
         <v>157.4855090467017</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3605070097593</v>
+        <v>150.3605070097594</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>314.5096953211452</v>
       </c>
       <c r="C20" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286721</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4588952783476</v>
+        <v>216.7084401886923</v>
       </c>
       <c r="E20" t="n">
         <v>313.7062237299264</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6518993993761</v>
+        <v>338.651899399376</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6975793111181</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3836180449851</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96361544584045</v>
+        <v>40.96361544584042</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6938237972848</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U20" t="n">
         <v>182.7710256165666</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>259.5281121277995</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750776</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.0938700407437</v>
+        <v>318.0137923137182</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>111.6078338396019</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629246</v>
+        <v>99.02267475629243</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587698</v>
+        <v>80.39132667587695</v>
       </c>
       <c r="E22" t="n">
-        <v>78.2098163042338</v>
+        <v>78.20981630423377</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059587</v>
+        <v>77.19690168059584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669285</v>
+        <v>97.80166191669282</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198541</v>
+        <v>76.53086857198538</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750272</v>
+        <v>28.12827406750269</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771196</v>
+        <v>20.70800632771193</v>
       </c>
       <c r="S22" t="n">
         <v>121.5448789891065</v>
@@ -2293,7 +2293,7 @@
         <v>151.3248029338338</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632774</v>
       </c>
       <c r="V22" t="n">
         <v>183.9134969814926</v>
@@ -2302,7 +2302,7 @@
         <v>218.2988519942556</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467017</v>
       </c>
       <c r="Y22" t="n">
         <v>150.3605070097594</v>
@@ -2318,22 +2318,22 @@
         <v>314.5096953211452</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286721</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4588952783476</v>
+        <v>286.4588952783475</v>
       </c>
       <c r="E23" t="n">
         <v>313.7062237299264</v>
       </c>
       <c r="F23" t="n">
-        <v>338.6518993993761</v>
+        <v>338.651899399376</v>
       </c>
       <c r="G23" t="n">
-        <v>342.6975793111181</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3836180449851</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584045</v>
+        <v>40.9636154458404</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6938237972848</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U23" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165665</v>
       </c>
       <c r="V23" t="n">
         <v>259.5281121277995</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750776</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y23" t="n">
         <v>318.0137923137182</v>
@@ -2476,25 +2476,25 @@
         <v>111.6078338396019</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629246</v>
+        <v>99.0226747562924</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587698</v>
+        <v>80.39132667587693</v>
       </c>
       <c r="E25" t="n">
-        <v>78.2098163042338</v>
+        <v>78.20981630423374</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059587</v>
+        <v>77.19690168059581</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669285</v>
+        <v>97.80166191669279</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198541</v>
+        <v>76.53086857198535</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750272</v>
+        <v>28.12827406750267</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771196</v>
+        <v>20.7080063277119</v>
       </c>
       <c r="S25" t="n">
         <v>121.5448789891065</v>
@@ -2530,7 +2530,7 @@
         <v>151.3248029338338</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632774</v>
       </c>
       <c r="V25" t="n">
         <v>183.9134969814926</v>
@@ -2539,7 +2539,7 @@
         <v>218.2988519942556</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467017</v>
       </c>
       <c r="Y25" t="n">
         <v>150.3605070097594</v>
@@ -2567,7 +2567,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2615,7 +2615,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988213</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
         <v>322.7559640598765</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687274</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403102</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007083</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052283</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092322</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I37" t="n">
-        <v>42.20693826439415</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333689</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>239.4866237999594</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
         <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247764</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383229</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052293</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010745</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846426</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>98.69583361727743</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092332</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621587</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333689</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>170.2318734253266</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3740,19 @@
         <v>310.7752483302253</v>
       </c>
       <c r="C41" t="n">
-        <v>215.8729701972832</v>
+        <v>293.3142984377523</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>282.7244482874277</v>
       </c>
       <c r="E41" t="n">
         <v>309.9717767390065</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9174524084561</v>
+        <v>334.9174524084562</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9631323201982</v>
+        <v>293.0767011151008</v>
       </c>
       <c r="H41" t="n">
         <v>222.6491710540652</v>
@@ -3797,16 +3797,16 @@
         <v>179.0365786256467</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7936651368796</v>
+        <v>255.7936651368797</v>
       </c>
       <c r="W41" t="n">
-        <v>277.2823753841577</v>
+        <v>277.2823753841578</v>
       </c>
       <c r="X41" t="n">
-        <v>297.7725073452137</v>
+        <v>297.7725073452138</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>107.873386848682</v>
       </c>
       <c r="C43" t="n">
-        <v>126.7008840009157</v>
+        <v>95.28822776537258</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495709</v>
+        <v>76.6568796849571</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331391</v>
+        <v>74.47536931331392</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967598</v>
+        <v>73.46245468967599</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577296</v>
+        <v>94.06721492577297</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106552</v>
+        <v>72.79642158106553</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39382707658283</v>
+        <v>24.39382707658284</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679206</v>
+        <v>16.97355933679208</v>
       </c>
       <c r="S43" t="n">
-        <v>117.8104319981866</v>
+        <v>117.8104319981867</v>
       </c>
       <c r="T43" t="n">
-        <v>147.5903559429139</v>
+        <v>147.590355942914</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2532448723576</v>
+        <v>245.6659011079005</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1790499905727</v>
+        <v>180.1790499905728</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5644050033357</v>
+        <v>214.5644050033358</v>
       </c>
       <c r="X43" t="n">
         <v>153.7510620557819</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6260600188395</v>
+        <v>146.6260600188396</v>
       </c>
     </row>
     <row r="44">
@@ -3980,19 +3980,19 @@
         <v>293.3142984377523</v>
       </c>
       <c r="D44" t="n">
-        <v>232.5304484985378</v>
+        <v>282.7244482874277</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>334.9174524084561</v>
+        <v>334.9174524084562</v>
       </c>
       <c r="G44" t="n">
         <v>338.9631323201982</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540652</v>
+        <v>172.455171265175</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>179.0365786256467</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7936651368796</v>
+        <v>255.7936651368797</v>
       </c>
       <c r="W44" t="n">
-        <v>277.2823753841577</v>
+        <v>277.2823753841578</v>
       </c>
       <c r="X44" t="n">
-        <v>297.7725073452137</v>
+        <v>297.7725073452138</v>
       </c>
       <c r="Y44" t="n">
         <v>314.2793453227983</v>
@@ -4135,25 +4135,25 @@
         <v>107.873386848682</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28822776537257</v>
+        <v>95.28822776537258</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65687968495709</v>
+        <v>76.6568796849571</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331391</v>
+        <v>74.47536931331392</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967598</v>
+        <v>73.46245468967599</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577296</v>
+        <v>94.06721492577297</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106552</v>
+        <v>72.79642158106553</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39382707658283</v>
+        <v>24.39382707658284</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679206</v>
+        <v>16.97355933679208</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8104319981866</v>
+        <v>117.8104319981867</v>
       </c>
       <c r="T46" t="n">
-        <v>147.5903559429139</v>
+        <v>179.0030121784566</v>
       </c>
       <c r="U46" t="n">
         <v>214.2532448723576</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1790499905727</v>
+        <v>180.1790499905728</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5644050033357</v>
+        <v>214.5644050033358</v>
       </c>
       <c r="X46" t="n">
         <v>153.7510620557819</v>
       </c>
       <c r="Y46" t="n">
-        <v>178.0387162543827</v>
+        <v>146.6260600188396</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1301.367519464213</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C11" t="n">
-        <v>979.8546354718749</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="D11" t="n">
-        <v>669.0385698131975</v>
+        <v>990.5514538055336</v>
       </c>
       <c r="E11" t="n">
-        <v>330.6999501630259</v>
+        <v>652.2128341553627</v>
       </c>
       <c r="F11" t="n">
-        <v>330.6999501630259</v>
+        <v>652.2128341553627</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
         <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243045</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921007</v>
+        <v>2309.223550921004</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.207425608</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y11" t="n">
-        <v>1640.517726580262</v>
+        <v>1640.517726580259</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158125</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,22 +5136,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199864</v>
@@ -5160,7 +5160,7 @@
         <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052936</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254599</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611974</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268777</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770407</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998332</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L13" t="n">
         <v>771.697886033711</v>
@@ -5215,7 +5215,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107745</v>
@@ -5224,16 +5224,16 @@
         <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588245</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
         <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W13" t="n">
         <v>1247.547945832861</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874601</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
         <v>1386.143792573978</v>
@@ -5264,16 +5264,16 @@
         <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912089</v>
@@ -5288,19 +5288,19 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
         <v>3262.764786084339</v>
@@ -5309,19 +5309,19 @@
         <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>2946.555226058581</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2662.941971663083</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2357.622949341042</v>
+        <v>2393.999824030772</v>
       </c>
       <c r="X14" t="n">
-        <v>2357.622949341042</v>
+        <v>2067.983698717765</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341042</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="15">
@@ -5331,64 +5331,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
         <v>434.8492327268784</v>
@@ -5431,16 +5431,16 @@
         <v>116.3881606657646</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5455,31 +5455,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874609</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>1473.076688949003</v>
       </c>
       <c r="C17" t="n">
-        <v>1300.289207831583</v>
+        <v>1173.027451142264</v>
       </c>
       <c r="D17" t="n">
-        <v>1300.289207831583</v>
+        <v>883.6750316691855</v>
       </c>
       <c r="E17" t="n">
-        <v>983.4142343670105</v>
+        <v>566.8000582046134</v>
       </c>
       <c r="F17" t="n">
-        <v>641.3416087110752</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="G17" t="n">
-        <v>295.182437689744</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5525,10 +5525,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296685</v>
@@ -5537,28 +5537,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.228432269937</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T17" t="n">
         <v>3147.163963787832</v>
       </c>
       <c r="U17" t="n">
-        <v>2962.54676619534</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V17" t="n">
-        <v>2700.397157985441</v>
+        <v>2700.397157985442</v>
       </c>
       <c r="W17" t="n">
-        <v>2416.541781849</v>
+        <v>2416.541781849001</v>
       </c>
       <c r="X17" t="n">
-        <v>2111.989302721592</v>
+        <v>2111.989302721593</v>
       </c>
       <c r="Y17" t="n">
-        <v>1790.763249879452</v>
+        <v>1790.763249879453</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5589,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.220726506102</v>
+        <v>609.2207265061026</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118673</v>
+        <v>509.1978227118678</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9944624332038</v>
+        <v>427.9944624332042</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844829</v>
+        <v>348.9946479844832</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0179796202447</v>
+        <v>271.017979620245</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2284221286359</v>
+        <v>172.2284221286361</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016587</v>
+        <v>94.92451448016595</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>140.2594919287896</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>344.246674877666</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>660.8064733261621</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>1004.963518925711</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.371895631576</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1645.701494551989</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.308994985648</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.919291138163</v>
+        <v>1955.919291138164</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.002113029363</v>
+        <v>1935.002113029364</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.229507989862</v>
+        <v>1812.229507989863</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.37617169306</v>
+        <v>1659.376171693061</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.186583952376</v>
+        <v>1439.186583952377</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.415374880161</v>
+        <v>1253.415374880162</v>
       </c>
       <c r="W19" t="n">
         <v>1032.911483976873</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125275</v>
+        <v>873.8352122125281</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9559122026695</v>
+        <v>721.9559122026701</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1889.690865111402</v>
+        <v>1473.076688949004</v>
       </c>
       <c r="C20" t="n">
-        <v>1589.641627304662</v>
+        <v>1173.027451142264</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.289207831584</v>
+        <v>954.1300368102517</v>
       </c>
       <c r="E20" t="n">
-        <v>983.4142343670118</v>
+        <v>637.2550633456796</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3416087110763</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="G20" t="n">
         <v>295.1824376897441</v>
@@ -5750,22 +5750,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5783,19 +5783,19 @@
         <v>3147.163963787833</v>
       </c>
       <c r="U20" t="n">
-        <v>2962.546766195341</v>
+        <v>2962.546766195342</v>
       </c>
       <c r="V20" t="n">
-        <v>2962.546766195341</v>
+        <v>2700.397157985443</v>
       </c>
       <c r="W20" t="n">
-        <v>2678.691390058899</v>
+        <v>2416.541781849001</v>
       </c>
       <c r="X20" t="n">
-        <v>2374.138910931491</v>
+        <v>2111.989302721594</v>
       </c>
       <c r="Y20" t="n">
-        <v>2207.377426041851</v>
+        <v>1790.763249879454</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064633</v>
@@ -5829,10 +5829,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
         <v>765.1517452158135</v>
@@ -5850,7 +5850,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125857</v>
@@ -5859,16 +5859,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2207265061028</v>
+        <v>609.2207265061026</v>
       </c>
       <c r="C22" t="n">
-        <v>509.197822711868</v>
+        <v>509.1978227118678</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9944624332043</v>
+        <v>427.9944624332042</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844833</v>
+        <v>348.9946479844832</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0179796202451</v>
+        <v>271.017979620245</v>
       </c>
       <c r="G22" t="n">
         <v>172.2284221286361</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92451448016598</v>
+        <v>94.92451448016595</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5926,13 +5926,13 @@
         <v>1645.70149455199</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.30899498565</v>
+        <v>1878.308994985649</v>
       </c>
       <c r="Q22" t="n">
-        <v>1955.919291138165</v>
+        <v>1955.919291138164</v>
       </c>
       <c r="R22" t="n">
-        <v>1935.002113029365</v>
+        <v>1935.002113029364</v>
       </c>
       <c r="S22" t="n">
         <v>1812.229507989863</v>
@@ -5947,13 +5947,13 @@
         <v>1253.415374880162</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.911483976874</v>
+        <v>1032.911483976873</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125284</v>
+        <v>873.8352122125281</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9559122026703</v>
+        <v>721.9559122026701</v>
       </c>
     </row>
     <row r="23">
@@ -5972,55 +5972,55 @@
         <v>1308.791537957346</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927739</v>
+        <v>991.9165644927743</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368383</v>
+        <v>649.843938836839</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6847678155074</v>
+        <v>303.6847678155073</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="J23" t="n">
-        <v>263.8935775169721</v>
+        <v>361.9270325896014</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7129512068186</v>
+        <v>695.7464062794479</v>
       </c>
       <c r="L23" t="n">
-        <v>1048.747164455227</v>
+        <v>1146.780619527857</v>
       </c>
       <c r="M23" t="n">
-        <v>1977.050940609817</v>
+        <v>1680.312524199781</v>
       </c>
       <c r="N23" t="n">
-        <v>2523.8297576686</v>
+        <v>2227.091341258564</v>
       </c>
       <c r="O23" t="n">
-        <v>3048.644533227669</v>
+        <v>2730.063812137901</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.418899584847</v>
+        <v>3443.418899584846</v>
       </c>
       <c r="Q23" t="n">
         <v>3691.705261340529</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897332</v>
+        <v>3750.722327897331</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.344938558099</v>
+        <v>3709.344938558098</v>
       </c>
       <c r="T23" t="n">
         <v>3572.280470075993</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.663272483502</v>
+        <v>3387.663272483501</v>
       </c>
       <c r="V23" t="n">
         <v>3125.513664273603</v>
@@ -6063,7 +6063,7 @@
         <v>94.02173815640867</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="J24" t="n">
         <v>168.691716048564</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318659</v>
+        <v>617.7230566318655</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376311</v>
+        <v>517.7001528376308</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589675</v>
+        <v>436.4967925589672</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4969781102465</v>
+        <v>357.4969781102463</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5203097460083</v>
+        <v>279.5203097460081</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543993</v>
+        <v>180.7307522543992</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4268446059292</v>
+        <v>103.4268446059291</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="J25" t="n">
         <v>120.1370790048822</v>
@@ -6154,22 +6154,22 @@
         <v>640.6840604022548</v>
       </c>
       <c r="M25" t="n">
-        <v>984.8411060018038</v>
+        <v>1013.465849051475</v>
       </c>
       <c r="N25" t="n">
-        <v>1326.249482707668</v>
+        <v>1354.874225757339</v>
       </c>
       <c r="O25" t="n">
-        <v>1625.579081628082</v>
+        <v>1654.203824677753</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111413</v>
+        <v>1886.811325111412</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.421621263928</v>
+        <v>1964.421621263927</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.504443155128</v>
+        <v>1943.504443155127</v>
       </c>
       <c r="S25" t="n">
         <v>1820.731838115626</v>
@@ -6184,13 +6184,13 @@
         <v>1261.917705005925</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.413814102637</v>
+        <v>1041.413814102636</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3375423382915</v>
+        <v>882.337542338291</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284335</v>
+        <v>730.458242328433</v>
       </c>
     </row>
     <row r="26">
@@ -6212,55 +6212,55 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M26" t="n">
-        <v>1986.936041136909</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N26" t="n">
-        <v>2533.714858195691</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075028</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
         <v>549.9474938257041</v>
@@ -6370,16 +6370,16 @@
         <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6388,7 +6388,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6443,61 +6443,61 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398482</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910142</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.783593239423</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M29" t="n">
-        <v>1909.315497911347</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N29" t="n">
-        <v>2456.09431497013</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3080.016953737237</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6613,22 +6613,22 @@
         <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557148</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455613</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465895</v>
+        <v>1863.465327102305</v>
       </c>
       <c r="N32" t="n">
-        <v>2568.163811692541</v>
+        <v>2410.244144161087</v>
       </c>
       <c r="O32" t="n">
-        <v>3290.208794490543</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.983160847721</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
         <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,16 +6877,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464981</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307339</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.07033796065</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601598</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7020,34 +7020,34 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>444.8926667912276</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C37" t="n">
-        <v>374.6279184371641</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D37" t="n">
-        <v>323.1827135986719</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E37" t="n">
-        <v>273.9410545901222</v>
+        <v>329.9792181898303</v>
       </c>
       <c r="F37" t="n">
-        <v>225.7225416660553</v>
+        <v>281.7607052657633</v>
       </c>
       <c r="G37" t="n">
-        <v>156.6911396146177</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>109.1453874063189</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
         <v>315.6219318279954</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058689</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1323.410616184332</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.397562552288</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>877.9803925153278</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X37" t="n">
-        <v>748.662276191154</v>
+        <v>804.7004397908623</v>
       </c>
       <c r="Y37" t="n">
-        <v>626.5411316214673</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,19 +7157,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7184,37 +7184,37 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064571</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.602264964779</v>
+        <v>453.7336441225989</v>
       </c>
       <c r="C40" t="n">
-        <v>529.3375166107155</v>
+        <v>383.4688957685353</v>
       </c>
       <c r="D40" t="n">
-        <v>477.8923117722233</v>
+        <v>332.023690930043</v>
       </c>
       <c r="E40" t="n">
-        <v>329.9792181898301</v>
+        <v>282.7820319214932</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758176</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>976.6518270891715</v>
+        <v>985.4928044205427</v>
       </c>
       <c r="X40" t="n">
-        <v>804.7004397908619</v>
+        <v>757.5032535225254</v>
       </c>
       <c r="Y40" t="n">
-        <v>682.5792952211752</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1503.254038370578</v>
+        <v>1820.707922535021</v>
       </c>
       <c r="C41" t="n">
-        <v>1285.200533120797</v>
+        <v>1524.430853405978</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.200533120797</v>
+        <v>1238.850602610597</v>
       </c>
       <c r="E41" t="n">
-        <v>972.0977283339214</v>
+        <v>925.7477978237218</v>
       </c>
       <c r="F41" t="n">
-        <v>633.7972713556828</v>
+        <v>587.4473408454833</v>
       </c>
       <c r="G41" t="n">
         <v>291.4102690120473</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7427,34 +7427,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3288.000600947635</v>
+        <v>3288.000600947636</v>
       </c>
       <c r="T41" t="n">
         <v>3154.708301143226</v>
       </c>
       <c r="U41" t="n">
-        <v>2973.863272228431</v>
+        <v>2973.863272228432</v>
       </c>
       <c r="V41" t="n">
-        <v>2715.485832696229</v>
+        <v>2715.48583269623</v>
       </c>
       <c r="W41" t="n">
-        <v>2435.402625237484</v>
+        <v>2435.402625237485</v>
       </c>
       <c r="X41" t="n">
         <v>2134.622314787774</v>
       </c>
       <c r="Y41" t="n">
-        <v>1817.168430623331</v>
+        <v>2134.622314787774</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>614.5455015557027</v>
+        <v>582.8155457622248</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5648106456868</v>
+        <v>486.5648106456869</v>
       </c>
       <c r="D43" t="n">
-        <v>409.13361904472</v>
+        <v>409.1336190447201</v>
       </c>
       <c r="E43" t="n">
-        <v>333.9059732736958</v>
+        <v>333.9059732736959</v>
       </c>
       <c r="F43" t="n">
         <v>259.7014735871545</v>
@@ -7561,10 +7561,10 @@
         <v>164.6840847732424</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246911</v>
+        <v>91.15234580246914</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7600,19 +7600,19 @@
         <v>1642.06793467648</v>
       </c>
       <c r="U43" t="n">
-        <v>1425.650515613493</v>
+        <v>1393.920559820015</v>
       </c>
       <c r="V43" t="n">
-        <v>1243.651475218975</v>
+        <v>1211.921519425497</v>
       </c>
       <c r="W43" t="n">
-        <v>1026.919752993383</v>
+        <v>995.1897971999052</v>
       </c>
       <c r="X43" t="n">
-        <v>871.6156499067345</v>
+        <v>839.8856941132568</v>
       </c>
       <c r="Y43" t="n">
-        <v>723.5085185745734</v>
+        <v>691.7785627810956</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>1206.976969241535</v>
       </c>
       <c r="D44" t="n">
-        <v>972.0977283339204</v>
+        <v>921.3967184461533</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0977283339204</v>
+        <v>921.3967184461533</v>
       </c>
       <c r="F44" t="n">
-        <v>633.7972713556818</v>
+        <v>583.0962614679147</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120473</v>
+        <v>240.7092591242794</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,16 +7646,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7688,7 +7688,7 @@
         <v>2435.402625237484</v>
       </c>
       <c r="X44" t="n">
-        <v>2134.622314787774</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y44" t="n">
         <v>1817.16843062333</v>
@@ -7728,7 +7728,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
         <v>765.1517452158131</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.8155457622247</v>
+        <v>582.8155457622248</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456868</v>
+        <v>486.5648106456869</v>
       </c>
       <c r="D46" t="n">
-        <v>409.13361904472</v>
+        <v>409.1336190447201</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736958</v>
+        <v>333.9059732736959</v>
       </c>
       <c r="F46" t="n">
         <v>259.7014735871545</v>
@@ -7834,22 +7834,22 @@
         <v>1791.149102295585</v>
       </c>
       <c r="T46" t="n">
-        <v>1642.06793467648</v>
+        <v>1610.337978883003</v>
       </c>
       <c r="U46" t="n">
-        <v>1425.650515613493</v>
+        <v>1393.920559820015</v>
       </c>
       <c r="V46" t="n">
-        <v>1243.651475218975</v>
+        <v>1211.921519425497</v>
       </c>
       <c r="W46" t="n">
-        <v>1026.919752993383</v>
+        <v>995.1897971999052</v>
       </c>
       <c r="X46" t="n">
-        <v>871.6156499067345</v>
+        <v>839.8856941132568</v>
       </c>
       <c r="Y46" t="n">
-        <v>691.7785627810954</v>
+        <v>691.7785627810956</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331814</v>
+        <v>161.2833466331812</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772618</v>
+        <v>190.4708996772614</v>
       </c>
       <c r="L8" t="n">
-        <v>199.0214867114943</v>
+        <v>199.0214867114938</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499976</v>
+        <v>189.460420549997</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8656757253963</v>
+        <v>187.8656757253958</v>
       </c>
       <c r="O8" t="n">
-        <v>190.866191200131</v>
+        <v>190.8661912001305</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610385</v>
+        <v>197.7493741610381</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168186</v>
+        <v>197.1608845168183</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723705</v>
+        <v>115.0671825723703</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7238752484547</v>
+        <v>117.7238752484545</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888322</v>
+        <v>111.5038326888319</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586511</v>
+        <v>110.5673213586507</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809857</v>
+        <v>98.93952256809816</v>
       </c>
       <c r="O9" t="n">
-        <v>112.954571319553</v>
+        <v>112.9545713195526</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755406</v>
+        <v>110.1843514755402</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137827</v>
+        <v>124.0787517137825</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747619</v>
+        <v>119.3562654747617</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960292</v>
+        <v>122.553251996029</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7023147290575</v>
+        <v>111.7023147290573</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297873</v>
+        <v>123.6934388297872</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182095</v>
+        <v>125.0956219182094</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>99.02369199255486</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,16 +9644,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>398.7594661441062</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>22.06293401993184</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>402.5500016878934</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>165.390262243154</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>231.1066821161363</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>122.1718867553237</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>108.735493551573</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>221.2853655744084</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,13 +10832,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.06989098845861</v>
+        <v>15.0698909884586</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>350.0332614100548</v>
+        <v>31.73550625764138</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>5.471179065352771e-13</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>47.91540443583672</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>83.92851037866859</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23732,19 +23732,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>125.9891391224264</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4588952783475</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>69.7504550896557</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>69.75045508965526</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5281121277995</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>152.9199222729746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>77.44132824046912</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874277</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>45.88643120509738</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>314.2793453227983</v>
       </c>
     </row>
     <row r="42">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>50.19399978888987</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>309.9717767390065</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.19399978889018</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>907499.2307378289</v>
+        <v>907499.2307378286</v>
       </c>
     </row>
     <row r="5">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860018.3299193006</v>
+        <v>860018.3299193005</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860018.3299193006</v>
+        <v>860018.3299193005</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>832630.7051995175</v>
+        <v>832630.7051995177</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>803961.509387897</v>
+        <v>803961.5093878972</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>803961.5093878971</v>
+        <v>803961.509387897</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377791</v>
       </c>
       <c r="C2" t="n">
         <v>614457.2540377786</v>
@@ -26320,7 +26320,7 @@
         <v>614471.1549754214</v>
       </c>
       <c r="E2" t="n">
-        <v>573398.2574173821</v>
+        <v>573398.2574173815</v>
       </c>
       <c r="F2" t="n">
         <v>573398.257417382</v>
@@ -26329,31 +26329,31 @@
         <v>591158.1797444861</v>
       </c>
       <c r="H2" t="n">
-        <v>591158.1797444872</v>
+        <v>591158.179744487</v>
       </c>
       <c r="I2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="J2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="K2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="L2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.327398213</v>
       </c>
       <c r="M2" t="n">
-        <v>615781.3273982132</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="N2" t="n">
         <v>615781.3273982129</v>
       </c>
       <c r="O2" t="n">
-        <v>594279.4305394978</v>
+        <v>594279.4305394976</v>
       </c>
       <c r="P2" t="n">
-        <v>594279.4305394979</v>
+        <v>594279.4305394974</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004264871</v>
+        <v>49603.99004264934</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112468</v>
+        <v>1114814.601112467</v>
       </c>
       <c r="F3" t="n">
-        <v>1.70530256582424e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899433</v>
+        <v>16999.20777899429</v>
       </c>
       <c r="H3" t="n">
         <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.85161716348</v>
+        <v>28261.85161716344</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225418</v>
+        <v>40637.45238225412</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899432</v>
+        <v>16999.20777899429</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,28 +26421,28 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>429644.545893588</v>
+        <v>429644.5458935878</v>
       </c>
       <c r="E4" t="n">
-        <v>59435.44534362313</v>
+        <v>59435.44534362316</v>
       </c>
       <c r="F4" t="n">
-        <v>59435.44534362312</v>
+        <v>59435.44534362311</v>
       </c>
       <c r="G4" t="n">
-        <v>72844.10175942467</v>
+        <v>72844.10175942462</v>
       </c>
       <c r="H4" t="n">
-        <v>72844.10175942459</v>
+        <v>72844.10175942464</v>
       </c>
       <c r="I4" t="n">
         <v>88805.64290420647</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936337</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936333</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="L4" t="n">
         <v>86909.55729936331</v>
@@ -26454,10 +26454,10 @@
         <v>91573.95495316942</v>
       </c>
       <c r="O4" t="n">
+        <v>75210.52190087922</v>
+      </c>
+      <c r="P4" t="n">
         <v>75210.5219008792</v>
-      </c>
-      <c r="P4" t="n">
-        <v>75210.52190087919</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253469</v>
+        <v>34890.2685025347</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178175</v>
@@ -26497,13 +26497,13 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
         <v>80355.82754432673</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133805.0337653858</v>
+        <v>133800.6201875181</v>
       </c>
       <c r="C6" t="n">
-        <v>133805.0337653857</v>
+        <v>133800.6201875176</v>
       </c>
       <c r="D6" t="n">
-        <v>100332.3505366499</v>
+        <v>100327.9832952402</v>
       </c>
       <c r="E6" t="n">
-        <v>-679107.2823604905</v>
+        <v>-679248.5592604268</v>
       </c>
       <c r="F6" t="n">
-        <v>435707.3187519771</v>
+        <v>435566.041852041</v>
       </c>
       <c r="G6" t="n">
-        <v>421272.99388582</v>
+        <v>421190.9167269744</v>
       </c>
       <c r="H6" t="n">
-        <v>438272.2016648153</v>
+        <v>438190.1245059695</v>
       </c>
       <c r="I6" t="n">
-        <v>412210.1856610154</v>
+        <v>412210.1856610159</v>
       </c>
       <c r="J6" t="n">
-        <v>398856.376041789</v>
+        <v>398856.3760417892</v>
       </c>
       <c r="K6" t="n">
-        <v>439493.8284240431</v>
+        <v>439493.828424043</v>
       </c>
       <c r="L6" t="n">
-        <v>422494.6206450486</v>
+        <v>422494.6206450492</v>
       </c>
       <c r="M6" t="n">
-        <v>239520.6751460697</v>
+        <v>239520.6751460688</v>
       </c>
       <c r="N6" t="n">
-        <v>441688.7751387936</v>
+        <v>441688.7751387935</v>
       </c>
       <c r="O6" t="n">
-        <v>438713.0810942918</v>
+        <v>438641.4081047627</v>
       </c>
       <c r="P6" t="n">
-        <v>438713.0810942919</v>
+        <v>438641.4081047624</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="G2" t="n">
+        <v>68.2241463423354</v>
+      </c>
+      <c r="H2" t="n">
+        <v>68.2241463423354</v>
+      </c>
+      <c r="I2" t="n">
+        <v>68.22414634233543</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="G2" t="n">
-        <v>68.22414634233547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>68.22414634233537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>68.22414634233537</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859254</v>
-      </c>
       <c r="M2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076549</v>
+        <v>57.92057351076622</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>937.680581974333</v>
+        <v>937.6805819743328</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26917,28 +26917,28 @@
         <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>2.131628207280301e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374291</v>
+        <v>21.24900972374287</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484974</v>
+        <v>25.72612689484966</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.2490097237429</v>
+        <v>21.24900972374287</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951247</v>
+        <v>50.70958360951237</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076549</v>
+        <v>57.92057351076622</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.856127082533</v>
+        <v>1031.856127082532</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720401</v>
+        <v>106.2791265720399</v>
       </c>
       <c r="J4" t="n">
         <v>76.65587923428166</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959705</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>2.131628207280301e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374291</v>
+        <v>21.24900972374287</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484974</v>
+        <v>25.72612689484966</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>337.090162624442</v>
       </c>
       <c r="I8" t="n">
-        <v>201.4990738507123</v>
+        <v>201.4990738507122</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.2425723098105</v>
+        <v>135.2425723098103</v>
       </c>
       <c r="S8" t="n">
-        <v>203.7140793596059</v>
+        <v>203.7140793596058</v>
       </c>
       <c r="T8" t="n">
         <v>222.0765638936052</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858952</v>
+        <v>85.10723188858947</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643185</v>
+        <v>92.42270548643175</v>
       </c>
       <c r="S9" t="n">
         <v>169.3690802659313</v>
@@ -28032,10 +28032,10 @@
         <v>152.3094707112974</v>
       </c>
       <c r="J10" t="n">
-        <v>85.97478175284945</v>
+        <v>85.97478175284935</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657822</v>
+        <v>10.13465691657806</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.4160366515688</v>
+        <v>77.41603665156869</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348048</v>
+        <v>172.5970773348047</v>
       </c>
       <c r="S10" t="n">
-        <v>222.1963728005766</v>
+        <v>222.1963728005765</v>
       </c>
       <c r="T10" t="n">
         <v>227.499316156969</v>
@@ -28108,7 +28108,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="J19" t="n">
-        <v>28.91388186835424</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>28.91388186835559</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>28.91388186835553</v>
+        <v>28.91388186835508</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233537</v>
+        <v>68.2241463423354</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>28.91388186835462</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>28.9138818683553</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233543</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I37" t="n">
-        <v>54.14548214544394</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>46.7252144056535</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>46.72521440565382</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X40" t="n">
-        <v>55.47778196371058</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="C43" t="n">
-        <v>40.54593709771213</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325527</v>
+        <v>40.5459370977124</v>
       </c>
       <c r="V43" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325527</v>
+        <v>40.5459370977126</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325527</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.54593709771211</v>
+        <v>71.95859333325525</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.232846526676444</v>
+        <v>0.2328465266764469</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325133</v>
+        <v>2.384639491325163</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693615</v>
+        <v>8.976815719693729</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350486</v>
+        <v>19.76255789350511</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771874</v>
+        <v>29.61895136771911</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849297</v>
+        <v>36.74492825849343</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727518</v>
+        <v>40.88581267727569</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119462</v>
+        <v>41.54738787119515</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155574</v>
+        <v>39.23202022155623</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423102</v>
+        <v>33.48362159423144</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763086</v>
+        <v>25.14480535763117</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133919</v>
+        <v>14.62654563133937</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639473</v>
+        <v>5.30599022663954</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526134</v>
+        <v>1.019285670526147</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411552</v>
+        <v>0.01862772213411575</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986277</v>
+        <v>0.1245838750986292</v>
       </c>
       <c r="H9" t="n">
-        <v>1.20321795161043</v>
+        <v>1.203217951610446</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825558</v>
+        <v>4.289400962825612</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429622</v>
+        <v>11.77044409429637</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590428</v>
+        <v>20.11756372590453</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104194</v>
+        <v>27.05054709104228</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336719</v>
+        <v>31.56671256336758</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523475</v>
+        <v>32.40218951523515</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489147</v>
+        <v>29.64167312489184</v>
       </c>
       <c r="P9" t="n">
-        <v>23.7900559387897</v>
+        <v>23.79005593879</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223886</v>
+        <v>15.90302237223906</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211288</v>
+        <v>7.735128666211386</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906525</v>
+        <v>2.314090837906555</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282402</v>
+        <v>0.5021604439282465</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278138</v>
+        <v>0.008196307572278242</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390853</v>
+        <v>0.1044469358390866</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693226</v>
+        <v>0.9286282113693344</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960857</v>
+        <v>3.141004215960896</v>
       </c>
       <c r="J10" t="n">
-        <v>7.38439836382333</v>
+        <v>7.384398363823423</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930463</v>
+        <v>12.13483490930479</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647637</v>
+        <v>15.52841080647657</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157589</v>
+        <v>16.37253195157609</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617567</v>
+        <v>15.98322973617587</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205544</v>
+        <v>14.76309962205563</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093809</v>
+        <v>12.63238213093825</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125588</v>
+        <v>8.746006600125698</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364689</v>
+        <v>4.696314042364747</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395695</v>
+        <v>1.820225236395718</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124552</v>
+        <v>0.4462732713124609</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591222841</v>
+        <v>0.005697105591222913</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138795</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34448,10 +34448,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35656,10 +35656,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129106</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35814,7 +35814,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
@@ -35963,7 +35963,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340053</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>74.49229848142043</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>107.3081204062492</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>331.2670120909953</v>
+        <v>331.2670120909949</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>289.8106929612674</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,16 +36364,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>937.680581974333</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>530.115934908151</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36522,7 +36522,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5472612618385</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
@@ -36531,7 +36531,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>263.8709530134657</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
         <v>78.39423853789366</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>941.4711175181202</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>673.4432631313731</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
@@ -36838,22 +36838,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>770.0277979463631</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>630.2248876435428</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302269</v>
+        <v>647.6566093817997</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>729.3383664626277</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37227,7 +37227,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222342</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37552,13 +37552,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129129</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38026,7 +38026,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38096,10 +38096,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
